--- a/Azure Account.xlsx
+++ b/Azure Account.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Tipo</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>skillcoders#2017</t>
+  </si>
+  <si>
+    <t>diaz_franciscojavier@hotmail.com</t>
+  </si>
+  <si>
+    <t>v10650Z1</t>
   </si>
 </sst>
 </file>
@@ -380,18 +386,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -433,9 +439,21 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
